--- a/Electronics/Active Electrode/Overall/ExperimentalFrequencyResponseChart.xlsx
+++ b/Electronics/Active Electrode/Overall/ExperimentalFrequencyResponseChart.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filter_2_3_2017" sheetId="1" r:id="rId1"/>
+    <sheet name="DH_Active_Filter_no_notch_2_5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>freq (Hz)</t>
   </si>
@@ -544,6 +545,594 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1584-4208-9C03-C54C65D0FF16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409402624"/>
+        <c:axId val="409402952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409402624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409402952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409402952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vout/Vin (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409402624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Active Electrode w/o Notch</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Frequency Response (20 mVpp input)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DH_Active_Filter_no_notch_2_5!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freq (Hz) dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DH_Active_Filter_no_notch_2_5!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DH_Active_Filter_no_notch_2_5!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.42378598139876184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.629578340845104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.903387028635102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.082399653118493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.557734092273471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.454329422951666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.136517520636993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.953526484821971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.547358105683124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.95646161491451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.22315217479953</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.32482599983566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.567075640424569</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.86905352972375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.29946695941636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.575072019056577</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.312210233485995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.501225267834002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.403186068119139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.595671932336202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0436503622272495</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.498774732165999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.0980391997148637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19BD-4FB6-A50D-48845131419E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -878,7 +1467,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1419,6 +2564,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2B608F-7F0A-4162-8AC6-3D62CA5BB14E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1734,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,4 +4321,1267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R242"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D51" si="0">20*LOG10(B2/A2)</f>
+        <v>0.42378598139876184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>680</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.629578340845104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2490</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <f>20*LOG10(B4/A4)</f>
+        <v>41.903387028635102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <f>20*LOG10(B5/A5)</f>
+        <v>44.082399653118493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3380</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>44.557734092273471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3340</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>44.454329422951666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3220</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>44.136517520636993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2810</v>
+      </c>
+      <c r="C9" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>42.953526484821971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2390</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>41.547358105683124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1990</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>39.95646161491451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1630</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>38.22315217479953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1310</v>
+      </c>
+      <c r="C13" s="2">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>36.32482599983566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1070</v>
+      </c>
+      <c r="C14" s="2">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>34.567075640424569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>880</v>
+      </c>
+      <c r="C15" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>32.86905352972375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>720</v>
+      </c>
+      <c r="C16" s="2">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>31.126050015345747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>520</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>28.29946695941636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>380</v>
+      </c>
+      <c r="C18" s="2">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>25.575072019056577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>261</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>22.312210233485995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>17.501225267834002</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>14.403186068119139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2">
+        <v>160</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>11.595671932336202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0436503622272495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>300</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.498774732165999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0980391997148637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>